--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/90/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/90/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6066066066066066</v>
+        <v>0.598059805980598</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>760.7607607607608</v>
+        <v>151.6851685168517</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06786786786786787</v>
+        <v>0.07423742374237424</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.94994994994995</v>
+        <v>0.1882188218821882</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>640.6406406406406</v>
+        <v>680.8880888088809</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>562.5625625625626</v>
+        <v>786.8586858685868</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>932.932932932933</v>
+        <v>921.1710171017102</v>
       </c>
     </row>
   </sheetData>
